--- a/uploads/updatefeeinfo - Copy (2).xlsx
+++ b/uploads/updatefeeinfo - Copy (2).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t xml:space="preserve">   '22-1-20'</t>
   </si>
@@ -355,7 +355,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -383,14 +383,40 @@
         <v>10000</v>
       </c>
       <c r="H1">
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="E2" s="1"/>
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1801101</v>
+      </c>
+      <c r="C2">
+        <v>10000</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>10000</v>
+      </c>
+      <c r="H2">
+        <v>10000</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8">
       <c r="E4" s="1"/>
